--- a/biology/Médecine/Leucocyturie/Leucocyturie.xlsx
+++ b/biology/Médecine/Leucocyturie/Leucocyturie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La leucocyturie est la présence de leucocytes dans les urines. L'urine en contient physiologiquement en temps normal. La leucocyturie est considérée pathologique lorsque sa valeur dépasse le seuil de 10⁴/mL (ou 10/mm³). Elle peut être détectée avec une bandelette urinaire ou un examen cytobactériologique des urines. Plusieurs situations pathologiques peuvent présenter une leucocyturie, la plus fréquente étant une infection urinaire.
-La leucocyturie est dite isolée si les autres parties des examens urinaires sont normaux : pas de germe, pas de nitrite, pas de sang, pas de protéine. Si elle est isolée, elle peut être le témoin d'une infection urinaire dite « décapitée » par un traitement antibiotique préalable (ayant fait disparaître toute trace de germe), de leucorrhées avec des leucocytes contaminant l'examen, d'une infection urinaire à germe atypique (Chlamydia trachomatis, Ureaplasma urealyticum, corynébactérie, gonocoque, bacille de Koch), d'une tumeur urothéliale, d'une lithiase urinaire, d'une cystite radique, d'une néphropathie interstitielle ou d'une glomérulonéphrite[1].
-La leucocyturie à des seuils significatifs est habituelle dans certains cas : sonde urinaire à demeure, postopératoire d'une résection transurétrale de prostate ou de vessie, cystectomie avec entérocystoplastie de substitution[1].
+La leucocyturie est dite isolée si les autres parties des examens urinaires sont normaux : pas de germe, pas de nitrite, pas de sang, pas de protéine. Si elle est isolée, elle peut être le témoin d'une infection urinaire dite « décapitée » par un traitement antibiotique préalable (ayant fait disparaître toute trace de germe), de leucorrhées avec des leucocytes contaminant l'examen, d'une infection urinaire à germe atypique (Chlamydia trachomatis, Ureaplasma urealyticum, corynébactérie, gonocoque, bacille de Koch), d'une tumeur urothéliale, d'une lithiase urinaire, d'une cystite radique, d'une néphropathie interstitielle ou d'une glomérulonéphrite.
+La leucocyturie à des seuils significatifs est habituelle dans certains cas : sonde urinaire à demeure, postopératoire d'une résection transurétrale de prostate ou de vessie, cystectomie avec entérocystoplastie de substitution.
 </t>
         </is>
       </c>
